--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ccl25-Ackr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ccl25-Ackr2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.804102</v>
+        <v>5.230988666666666</v>
       </c>
       <c r="H2">
-        <v>14.412306</v>
+        <v>15.692966</v>
       </c>
       <c r="I2">
-        <v>0.2049869746002893</v>
+        <v>0.2129406655351238</v>
       </c>
       <c r="J2">
-        <v>0.2049869746002893</v>
+        <v>0.2129406655351238</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -567,16 +567,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>2.627308937310667</v>
+        <v>2.860768417261777</v>
       </c>
       <c r="R2">
-        <v>23.645780435796</v>
+        <v>25.746915755356</v>
       </c>
       <c r="S2">
-        <v>0.2049869746002893</v>
+        <v>0.2129406655351238</v>
       </c>
       <c r="T2">
-        <v>0.2049869746002893</v>
+        <v>0.2129406655351238</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>25.467825</v>
       </c>
       <c r="I3">
-        <v>0.3622301938634672</v>
+        <v>0.345577477529236</v>
       </c>
       <c r="J3">
-        <v>0.3622301938634672</v>
+        <v>0.3455774775292359</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -635,10 +635,10 @@
         <v>41.78419457144999</v>
       </c>
       <c r="S3">
-        <v>0.3622301938634672</v>
+        <v>0.345577477529236</v>
       </c>
       <c r="T3">
-        <v>0.3622301938634672</v>
+        <v>0.3455774775292359</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.823586333333332</v>
+        <v>8.418577333333333</v>
       </c>
       <c r="H4">
-        <v>23.470759</v>
+        <v>25.255732</v>
       </c>
       <c r="I4">
-        <v>0.3338258207244912</v>
+        <v>0.3426995496362334</v>
       </c>
       <c r="J4">
-        <v>0.3338258207244912</v>
+        <v>0.3426995496362334</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -691,16 +691,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>4.278630698388222</v>
+        <v>4.604024533056889</v>
       </c>
       <c r="R4">
-        <v>38.50767628549399</v>
+        <v>41.436220797512</v>
       </c>
       <c r="S4">
-        <v>0.3338258207244912</v>
+        <v>0.3426995496362334</v>
       </c>
       <c r="T4">
-        <v>0.3338258207244912</v>
+        <v>0.3426995496362334</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.319169666666667</v>
+        <v>2.426634333333333</v>
       </c>
       <c r="H5">
-        <v>6.957509</v>
+        <v>7.279902999999999</v>
       </c>
       <c r="I5">
-        <v>0.09895701081175239</v>
+        <v>0.09878230729940689</v>
       </c>
       <c r="J5">
-        <v>0.09895701081175239</v>
+        <v>0.09878230729940687</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -753,16 +753,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>1.268327606777111</v>
+        <v>1.327098815044222</v>
       </c>
       <c r="R5">
-        <v>11.414948460994</v>
+        <v>11.943889335398</v>
       </c>
       <c r="S5">
-        <v>0.09895701081175239</v>
+        <v>0.09878230729940689</v>
       </c>
       <c r="T5">
-        <v>0.09895701081175239</v>
+        <v>0.09878230729940687</v>
       </c>
     </row>
   </sheetData>
